--- a/results/I3_N5_M3_T30_C100_DepCentral_s1_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1388.39213980878</v>
+        <v>232.6464527964958</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.63100004196167</v>
+        <v>1.023000001907349</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.892418918706468</v>
+        <v>2.46371460276237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.888105929231726</v>
+        <v>2.46371460276237</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1360.750000001759</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,12 +595,23 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -904,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21.60181147454992</v>
+        <v>21.60181147454998</v>
       </c>
     </row>
     <row r="5">
@@ -920,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.48909622152288</v>
+        <v>25.25804892475687</v>
       </c>
     </row>
     <row r="7">
@@ -928,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>22.76895270323388</v>
       </c>
     </row>
     <row r="8">
@@ -966,7 +977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -998,7 +1009,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>8</v>
@@ -1012,7 +1023,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>8</v>
@@ -1026,29 +1037,15 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1151,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>126.9700000000212</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1162,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>127.65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1173,7 +1170,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>136.8550000000232</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1184,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>127.2550000000247</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1195,7 +1192,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>123.480000000025</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1206,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>132.115000000031</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -1217,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>133.7650000000233</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
@@ -1228,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>121.5600000000216</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
@@ -1239,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>134.4950000000211</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
@@ -1250,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>132.0100000000278</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1261,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>85.07000000000698</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1272,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>88.54000000000271</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -1283,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>74.91000000000169</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -1294,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>82.970000000003</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -1305,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>82.74500000000626</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
@@ -1316,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>177.6150000000435</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -1327,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>171.8100000000396</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -1338,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>178.4650000000384</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1346,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>177.2</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
@@ -1360,7 +1357,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>179.1300000000411</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -1371,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.7250000000113</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>96.12000000001171</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29">
@@ -1393,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>98.26500000001215</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30">
@@ -1404,7 +1401,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>96.94500000001062</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
@@ -1415,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>103.5650000000114</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -1426,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>126.9700000000773</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -1437,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>127.65</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1448,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>136.8550000000939</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -1459,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>127.2550000000844</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
@@ -1470,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>123.4800000000811</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
@@ -1481,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>132.1150000000427</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
@@ -1492,7 +1489,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>133.7650000000368</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -1503,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>121.5600000000333</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1514,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>134.4950000000327</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41">
@@ -1525,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>132.0100000000376</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
@@ -1536,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>177.6150000000999</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
@@ -1547,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>171.8100000001032</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
@@ -1558,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>178.4650000000929</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
@@ -1569,7 +1566,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>177.2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46">
@@ -1580,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>179.1300000001047</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>26.9700000000737</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1638,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1649,7 +1646,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>36.85500000009017</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1660,7 +1657,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>27.2550000000806</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1671,7 +1668,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>23.48000000007733</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -1682,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>32.11500000004037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1693,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76500000003466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1704,7 +1701,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>21.56000000003053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1715,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>34.49500000003059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1726,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>32.01000000003535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1737,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>77.6150000000963</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1748,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>71.81000000009965</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -1759,7 +1756,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>78.46500000008928</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>77.19999999999999</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -1781,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>79.13000000010118</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2106,7 +2103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,7 +2130,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2144,7 +2141,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2155,7 +2152,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2166,7 +2163,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2177,7 +2174,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2188,7 +2185,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2199,7 +2196,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2210,7 +2207,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2221,7 +2218,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2232,89 +2229,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>
